--- a/Act/Act coeff.xlsx
+++ b/Act/Act coeff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Act/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="8_{09098739-24F5-4595-8E13-EBA926F9E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA19C96D-7D9B-44DB-872E-E10B80C76038}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="8_{09098739-24F5-4595-8E13-EBA926F9E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA1712E-06E1-458D-824C-FAF4927C4791}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="3" activeTab="6" xr2:uid="{F0FFBB4D-3462-4CB2-9D76-7DC3B03F0357}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="30">
   <si>
     <t>China</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>TOT</t>
+  </si>
+  <si>
+    <t>Copper</t>
   </si>
 </sst>
 </file>
@@ -6373,22 +6376,48 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="J24:L24"/>
@@ -6405,48 +6434,22 @@
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7944,6 +7947,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="D2:F2"/>
@@ -7960,22 +7979,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="V3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14306,15 +14309,55 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:W24"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -14331,55 +14374,15 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16305,6 +16308,2352 @@
       </c>
       <c r="AI20">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED252F2A-3F4A-423D-8A86-74BC4A1FD378}">
+  <dimension ref="A1:AI20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="D1" s="25">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="25">
+        <v>2026</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="25">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="25">
+        <v>2028</v>
+      </c>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25">
+        <v>2029</v>
+      </c>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="25">
+        <v>2030</v>
+      </c>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B2" s="22"/>
+      <c r="D2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="27"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="D3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="27"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <f>D5+(($AF5-$D5)/7)</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>E5+(($AG5-$E5)/7)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="15">
+        <f>F5+(($AH5-$F5)/7)</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="K5" s="16">
+        <f>G5+(($AI5-$G5)/7)</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" ref="L5:L20" si="0">H5+(($AF5-$D5)/7)</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" ref="M5:M20" si="1">I5+(($AG5-$E5)/7)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" ref="N5:N20" si="2">J5+(($AH5-$F5)/7)</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" ref="O5:O20" si="3">K5+(($AI5-$G5)/7)</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="P5" s="14">
+        <f t="shared" ref="P5:P20" si="4">L5+(($AF5-$D5)/7)</f>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5:Q20" si="5">M5+(($AG5-$E5)/7)</f>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" ref="R5:R20" si="6">N5+(($AH5-$F5)/7)</f>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="S5" s="16">
+        <f t="shared" ref="S5:S20" si="7">O5+(($AI5-$G5)/7)</f>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" ref="T5:T20" si="8">P5+(($AF5-$D5)/7)</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" ref="U5:U20" si="9">Q5+(($AG5-$E5)/7)</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="V5" s="15">
+        <f t="shared" ref="V5:V20" si="10">R5+(($AH5-$F5)/7)</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" ref="W5:W20" si="11">S5+(($AI5-$G5)/7)</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="X5" s="14">
+        <f t="shared" ref="X5:X20" si="12">T5+(($AF5-$D5)/7)</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="Y5" s="15">
+        <f t="shared" ref="Y5:Y20" si="13">U5+(($AG5-$E5)/7)</f>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="Z5" s="15">
+        <f t="shared" ref="Z5:Z20" si="14">V5+(($AH5-$F5)/7)</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" ref="AA5:AA20" si="15">W5+(($AI5-$G5)/7)</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AB5" s="14">
+        <f t="shared" ref="AB5:AB20" si="16">X5+(($AF5-$D5)/7)</f>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AC5" s="15">
+        <f t="shared" ref="AC5:AC20" si="17">Y5+(($AG5-$E5)/7)</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="AD5" s="15">
+        <f t="shared" ref="AD5:AD20" si="18">Z5+(($AH5-$F5)/7)</f>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AE5" s="16">
+        <f t="shared" ref="AE5:AE20" si="19">AA5+(($AI5-$G5)/7)</f>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" ref="H6:H20" si="20">D6+(($AF6-$D6)/7)</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" ref="I6:I20" si="21">E6+(($AG6-$E6)/7)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:J20" si="22">F6+(($AH6-$F6)/7)</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" ref="K6:K20" si="23">G6+(($AI6-$G6)/7)</f>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="4"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="5"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="7"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" si="8"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="10"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="W6" s="18">
+        <f t="shared" si="11"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="12"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="Y6" s="13">
+        <f t="shared" si="13"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="Z6" s="13">
+        <f t="shared" si="14"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AA6" s="18">
+        <f t="shared" si="15"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AB6" s="17">
+        <f t="shared" si="16"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AC6" s="13">
+        <f t="shared" si="17"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="AD6" s="13">
+        <f t="shared" si="18"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AE6" s="18">
+        <f t="shared" si="19"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AG6">
+        <v>0.65</v>
+      </c>
+      <c r="AH6">
+        <v>0.65</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="20"/>
+        <v>0.95</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="22"/>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="23"/>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="4"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="5"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="7"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="T7" s="17">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="V7" s="13">
+        <f t="shared" si="10"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="W7" s="18">
+        <f t="shared" si="11"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="X7" s="17">
+        <f t="shared" si="12"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="Y7" s="13">
+        <f t="shared" si="13"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="Z7" s="13">
+        <f t="shared" si="14"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AA7" s="18">
+        <f t="shared" si="15"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AB7" s="17">
+        <f t="shared" si="16"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="AC7" s="13">
+        <f t="shared" si="17"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="AD7" s="13">
+        <f t="shared" si="18"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AE7" s="18">
+        <f t="shared" si="19"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AG7">
+        <v>0.65</v>
+      </c>
+      <c r="AH7">
+        <v>0.65</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="20"/>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="21"/>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="22"/>
+        <v>0.7717142857142858</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="23"/>
+        <v>9.285714285714286E-2</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.75142857142857156</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="4"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="5"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="6"/>
+        <v>0.73114285714285732</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="7"/>
+        <v>0.27857142857142858</v>
+      </c>
+      <c r="T8" s="17">
+        <f t="shared" si="8"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="9"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="10"/>
+        <v>0.71085714285714308</v>
+      </c>
+      <c r="W8" s="18">
+        <f t="shared" si="11"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" si="12"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="Y8" s="13">
+        <f t="shared" si="13"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="Z8" s="13">
+        <f t="shared" si="14"/>
+        <v>0.69057142857142884</v>
+      </c>
+      <c r="AA8" s="18">
+        <f t="shared" si="15"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AB8" s="17">
+        <f t="shared" si="16"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" si="17"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AD8" s="13">
+        <f t="shared" si="18"/>
+        <v>0.6702857142857146</v>
+      </c>
+      <c r="AE8" s="18">
+        <f t="shared" si="19"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AG8">
+        <v>0.65</v>
+      </c>
+      <c r="AH8">
+        <v>0.65</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="20"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="21"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="22"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="23"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="T9" s="17">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="W9" s="18">
+        <f t="shared" si="11"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" si="12"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Y9" s="13">
+        <f t="shared" si="13"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Z9" s="13">
+        <f t="shared" si="14"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="AA9" s="18">
+        <f t="shared" si="15"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="AB9" s="17">
+        <f t="shared" si="16"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="17"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AD9" s="13">
+        <f t="shared" si="18"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AE9" s="18">
+        <f t="shared" si="19"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AG9">
+        <v>0.1</v>
+      </c>
+      <c r="AH9">
+        <v>0.1</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="20"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="21"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="22"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="23"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="W10" s="18">
+        <f t="shared" si="11"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="12"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Y10" s="13">
+        <f t="shared" si="13"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Z10" s="13">
+        <f t="shared" si="14"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="AA10" s="18">
+        <f t="shared" si="15"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="AB10" s="17">
+        <f t="shared" si="16"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="17"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AD10" s="13">
+        <f t="shared" si="18"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AE10" s="18">
+        <f t="shared" si="19"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AG10">
+        <v>0.1</v>
+      </c>
+      <c r="AH10">
+        <v>0.1</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="20"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="21"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="22"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="23"/>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.61428571428571432</v>
+      </c>
+      <c r="T11" s="17">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="W11" s="18">
+        <f t="shared" si="11"/>
+        <v>0.48571428571428577</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="12"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Y11" s="13">
+        <f t="shared" si="13"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Z11" s="13">
+        <f t="shared" si="14"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="AA11" s="18">
+        <f t="shared" si="15"/>
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="AB11" s="17">
+        <f t="shared" si="16"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="17"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AD11" s="13">
+        <f t="shared" si="18"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AE11" s="18">
+        <f t="shared" si="19"/>
+        <v>0.22857142857142862</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AG11">
+        <v>0.1</v>
+      </c>
+      <c r="AH11">
+        <v>0.1</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.08</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="20"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="21"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="22"/>
+        <v>8.2857142857142865E-2</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="23"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="2"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="6"/>
+        <v>8.8571428571428593E-2</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="T12" s="17">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="10"/>
+        <v>9.1428571428571456E-2</v>
+      </c>
+      <c r="W12" s="18">
+        <f t="shared" si="11"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="12"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Y12" s="13">
+        <f t="shared" si="13"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="Z12" s="13">
+        <f t="shared" si="14"/>
+        <v>9.428571428571432E-2</v>
+      </c>
+      <c r="AA12" s="18">
+        <f t="shared" si="15"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="AB12" s="17">
+        <f t="shared" si="16"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="17"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AD12" s="13">
+        <f t="shared" si="18"/>
+        <v>9.7142857142857184E-2</v>
+      </c>
+      <c r="AE12" s="18">
+        <f t="shared" si="19"/>
+        <v>8.5714285714285729E-2</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AG12">
+        <v>0.1</v>
+      </c>
+      <c r="AH12">
+        <v>0.1</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="22"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W13" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y13" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z13" s="13">
+        <f t="shared" si="14"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AA13" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB13" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC13" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD13" s="13">
+        <f t="shared" si="18"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AE13" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG13">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH13">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="22"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W14" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y14" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z14" s="13">
+        <f t="shared" si="14"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AA14" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB14" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD14" s="13">
+        <f t="shared" si="18"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AE14" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG14">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH14">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="22"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W15" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y15" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z15" s="13">
+        <f t="shared" si="14"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AA15" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB15" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD15" s="13">
+        <f t="shared" si="18"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AE15" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG15">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH15">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="22"/>
+        <v>7.9571428571428571E-2</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="2"/>
+        <v>8.7142857142857133E-2</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="6"/>
+        <v>9.4714285714285695E-2</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V16" s="13">
+        <f t="shared" si="10"/>
+        <v>0.10228571428571426</v>
+      </c>
+      <c r="W16" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y16" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z16" s="13">
+        <f t="shared" si="14"/>
+        <v>0.10985714285714282</v>
+      </c>
+      <c r="AA16" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB16" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD16" s="13">
+        <f t="shared" si="18"/>
+        <v>0.11742857142857138</v>
+      </c>
+      <c r="AE16" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG16">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH16">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="22"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W17" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z17" s="13">
+        <f t="shared" si="14"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AA17" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB17" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD17" s="13">
+        <f t="shared" si="18"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AE17" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="22"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R18" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U18" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V18" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W18" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y18" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z18" s="13">
+        <f t="shared" si="14"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AA18" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB18" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD18" s="13">
+        <f t="shared" si="18"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AE18" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG18">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH18">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="22"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R19" s="13">
+        <f t="shared" si="6"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S19" s="18">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U19" s="13">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V19" s="13">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W19" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y19" s="13">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z19" s="13">
+        <f t="shared" si="14"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AA19" s="18">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB19" s="17">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC19" s="13">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD19" s="13">
+        <f t="shared" si="18"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AE19" s="18">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH19">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>5.5999999999999932E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="21"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="22"/>
+        <v>6.5857142857142795E-2</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="23"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="L20" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="2"/>
+        <v>7.5714285714285665E-2</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="5"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="R20" s="20">
+        <f t="shared" si="6"/>
+        <v>8.5571428571428534E-2</v>
+      </c>
+      <c r="S20" s="21">
+        <f t="shared" si="7"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="T20" s="19">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" si="10"/>
+        <v>9.5428571428571404E-2</v>
+      </c>
+      <c r="W20" s="21">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="X20" s="19">
+        <f t="shared" si="12"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Y20" s="20">
+        <f t="shared" si="13"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="Z20" s="20">
+        <f t="shared" si="14"/>
+        <v>0.10528571428571427</v>
+      </c>
+      <c r="AA20" s="21">
+        <f t="shared" si="15"/>
+        <v>8.9285714285714274E-2</v>
+      </c>
+      <c r="AB20" s="19">
+        <f t="shared" si="16"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AC20" s="20">
+        <f t="shared" si="17"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AD20" s="20">
+        <f t="shared" si="18"/>
+        <v>0.11514285714285714</v>
+      </c>
+      <c r="AE20" s="21">
+        <f t="shared" si="19"/>
+        <v>0.10714285714285712</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>0.12499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -16344,2350 +18693,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED252F2A-3F4A-423D-8A86-74BC4A1FD378}">
-  <dimension ref="A1:AI20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="D1" s="25">
-        <v>2023</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25">
-        <v>2024</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25">
-        <v>2025</v>
-      </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="25">
-        <v>2026</v>
-      </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="25">
-        <v>2027</v>
-      </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="25">
-        <v>2028</v>
-      </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25">
-        <v>2029</v>
-      </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="25">
-        <v>2030</v>
-      </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B2" s="22"/>
-      <c r="D2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="27"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="D3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="27"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI4" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <f>D5+(($AF5-$D5)/7)</f>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="I5" s="15">
-        <f>E5+(($AG5-$E5)/7)</f>
-        <v>0.95</v>
-      </c>
-      <c r="J5" s="15">
-        <f>F5+(($AH5-$F5)/7)</f>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="K5" s="16">
-        <f>G5+(($AI5-$G5)/7)</f>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="L5" s="14">
-        <f t="shared" ref="L5:L20" si="0">H5+(($AF5-$D5)/7)</f>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="M5" s="15">
-        <f t="shared" ref="M5:M20" si="1">I5+(($AG5-$E5)/7)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N5" s="15">
-        <f t="shared" ref="N5:N20" si="2">J5+(($AH5-$F5)/7)</f>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="O5" s="16">
-        <f t="shared" ref="O5:O20" si="3">K5+(($AI5-$G5)/7)</f>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="P5" s="14">
-        <f t="shared" ref="P5:P20" si="4">L5+(($AF5-$D5)/7)</f>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q20" si="5">M5+(($AG5-$E5)/7)</f>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="R5" s="15">
-        <f t="shared" ref="R5:R20" si="6">N5+(($AH5-$F5)/7)</f>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="S5" s="16">
-        <f t="shared" ref="S5:S20" si="7">O5+(($AI5-$G5)/7)</f>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="T5" s="14">
-        <f t="shared" ref="T5:T20" si="8">P5+(($AF5-$D5)/7)</f>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="U5" s="15">
-        <f t="shared" ref="U5:U20" si="9">Q5+(($AG5-$E5)/7)</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="V5" s="15">
-        <f t="shared" ref="V5:V20" si="10">R5+(($AH5-$F5)/7)</f>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="W5" s="16">
-        <f t="shared" ref="W5:W20" si="11">S5+(($AI5-$G5)/7)</f>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="X5" s="14">
-        <f t="shared" ref="X5:X20" si="12">T5+(($AF5-$D5)/7)</f>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="Y5" s="15">
-        <f t="shared" ref="Y5:Y20" si="13">U5+(($AG5-$E5)/7)</f>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="Z5" s="15">
-        <f t="shared" ref="Z5:Z20" si="14">V5+(($AH5-$F5)/7)</f>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AA5" s="16">
-        <f t="shared" ref="AA5:AA20" si="15">W5+(($AI5-$G5)/7)</f>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AB5" s="14">
-        <f t="shared" ref="AB5:AB20" si="16">X5+(($AF5-$D5)/7)</f>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AC5" s="15">
-        <f t="shared" ref="AC5:AC20" si="17">Y5+(($AG5-$E5)/7)</f>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="AD5" s="15">
-        <f t="shared" ref="AD5:AD20" si="18">Z5+(($AH5-$F5)/7)</f>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AE5" s="16">
-        <f t="shared" ref="AE5:AE20" si="19">AA5+(($AI5-$G5)/7)</f>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="AI5" s="6">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" ref="H6:H20" si="20">D6+(($AF6-$D6)/7)</f>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" ref="I6:I20" si="21">E6+(($AG6-$E6)/7)</f>
-        <v>0.95</v>
-      </c>
-      <c r="J6" s="13">
-        <f t="shared" ref="J6:J20" si="22">F6+(($AH6-$F6)/7)</f>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" ref="K6:K20" si="23">G6+(($AI6-$G6)/7)</f>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="shared" si="0"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="M6" s="13">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N6" s="13">
-        <f t="shared" si="2"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="O6" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="P6" s="17">
-        <f t="shared" si="4"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" si="5"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="R6" s="13">
-        <f t="shared" si="6"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="S6" s="18">
-        <f t="shared" si="7"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="T6" s="17">
-        <f t="shared" si="8"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="U6" s="13">
-        <f t="shared" si="9"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="V6" s="13">
-        <f t="shared" si="10"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="W6" s="18">
-        <f t="shared" si="11"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="X6" s="17">
-        <f t="shared" si="12"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="Y6" s="13">
-        <f t="shared" si="13"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="Z6" s="13">
-        <f t="shared" si="14"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AA6" s="18">
-        <f t="shared" si="15"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AB6" s="17">
-        <f t="shared" si="16"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AC6" s="13">
-        <f t="shared" si="17"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="AD6" s="13">
-        <f t="shared" si="18"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AE6" s="18">
-        <f t="shared" si="19"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="AG6">
-        <v>0.65</v>
-      </c>
-      <c r="AH6">
-        <v>0.65</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="20"/>
-        <v>0.95</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="21"/>
-        <v>0.95</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="22"/>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="23"/>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="2"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="O7" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="P7" s="17">
-        <f t="shared" si="4"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="5"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="R7" s="13">
-        <f t="shared" si="6"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="S7" s="18">
-        <f t="shared" si="7"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="T7" s="17">
-        <f t="shared" si="8"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="U7" s="13">
-        <f t="shared" si="9"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="V7" s="13">
-        <f t="shared" si="10"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="W7" s="18">
-        <f t="shared" si="11"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="X7" s="17">
-        <f t="shared" si="12"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="Y7" s="13">
-        <f t="shared" si="13"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="Z7" s="13">
-        <f t="shared" si="14"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AA7" s="18">
-        <f t="shared" si="15"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AB7" s="17">
-        <f t="shared" si="16"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="AC7" s="13">
-        <f t="shared" si="17"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="AD7" s="13">
-        <f t="shared" si="18"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AE7" s="18">
-        <f t="shared" si="19"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="AG7">
-        <v>0.65</v>
-      </c>
-      <c r="AH7">
-        <v>0.65</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="20"/>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="21"/>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="22"/>
-        <v>0.7717142857142858</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="23"/>
-        <v>9.285714285714286E-2</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="0"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="M8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" si="2"/>
-        <v>0.75142857142857156</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="P8" s="17">
-        <f t="shared" si="4"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="5"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="R8" s="13">
-        <f t="shared" si="6"/>
-        <v>0.73114285714285732</v>
-      </c>
-      <c r="S8" s="18">
-        <f t="shared" si="7"/>
-        <v>0.27857142857142858</v>
-      </c>
-      <c r="T8" s="17">
-        <f t="shared" si="8"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="U8" s="13">
-        <f t="shared" si="9"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="V8" s="13">
-        <f t="shared" si="10"/>
-        <v>0.71085714285714308</v>
-      </c>
-      <c r="W8" s="18">
-        <f t="shared" si="11"/>
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="X8" s="17">
-        <f t="shared" si="12"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="Y8" s="13">
-        <f t="shared" si="13"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="Z8" s="13">
-        <f t="shared" si="14"/>
-        <v>0.69057142857142884</v>
-      </c>
-      <c r="AA8" s="18">
-        <f t="shared" si="15"/>
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="AB8" s="17">
-        <f t="shared" si="16"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AC8" s="13">
-        <f t="shared" si="17"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AD8" s="13">
-        <f t="shared" si="18"/>
-        <v>0.6702857142857146</v>
-      </c>
-      <c r="AE8" s="18">
-        <f t="shared" si="19"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="AG8">
-        <v>0.65</v>
-      </c>
-      <c r="AH8">
-        <v>0.65</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="20"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="21"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" si="22"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="23"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="M9" s="13">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N9" s="13">
-        <f t="shared" si="2"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" si="3"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="P9" s="17">
-        <f t="shared" si="4"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="Q9" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="R9" s="13">
-        <f t="shared" si="6"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="S9" s="18">
-        <f t="shared" si="7"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="T9" s="17">
-        <f t="shared" si="8"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="U9" s="13">
-        <f t="shared" si="9"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="V9" s="13">
-        <f t="shared" si="10"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="W9" s="18">
-        <f t="shared" si="11"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="X9" s="17">
-        <f t="shared" si="12"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Y9" s="13">
-        <f t="shared" si="13"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Z9" s="13">
-        <f t="shared" si="14"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="AA9" s="18">
-        <f t="shared" si="15"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="AB9" s="17">
-        <f t="shared" si="16"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AC9" s="13">
-        <f t="shared" si="17"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AD9" s="13">
-        <f t="shared" si="18"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AE9" s="18">
-        <f t="shared" si="19"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AG9">
-        <v>0.1</v>
-      </c>
-      <c r="AH9">
-        <v>0.1</v>
-      </c>
-      <c r="AI9" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <f t="shared" si="20"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="21"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="22"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="23"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="M10" s="13">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N10" s="13">
-        <f t="shared" si="2"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="O10" s="18">
-        <f t="shared" si="3"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="4"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="Q10" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="R10" s="13">
-        <f t="shared" si="6"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="S10" s="18">
-        <f t="shared" si="7"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="T10" s="17">
-        <f t="shared" si="8"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="U10" s="13">
-        <f t="shared" si="9"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="V10" s="13">
-        <f t="shared" si="10"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="W10" s="18">
-        <f t="shared" si="11"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="X10" s="17">
-        <f t="shared" si="12"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Y10" s="13">
-        <f t="shared" si="13"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Z10" s="13">
-        <f t="shared" si="14"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="AA10" s="18">
-        <f t="shared" si="15"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="AB10" s="17">
-        <f t="shared" si="16"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AC10" s="13">
-        <f t="shared" si="17"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AD10" s="13">
-        <f t="shared" si="18"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AE10" s="18">
-        <f t="shared" si="19"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AG10">
-        <v>0.1</v>
-      </c>
-      <c r="AH10">
-        <v>0.1</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="20"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="21"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="22"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="23"/>
-        <v>0.87142857142857144</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="M11" s="13">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="2"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="3"/>
-        <v>0.74285714285714288</v>
-      </c>
-      <c r="P11" s="17">
-        <f t="shared" si="4"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="Q11" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="R11" s="13">
-        <f t="shared" si="6"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="S11" s="18">
-        <f t="shared" si="7"/>
-        <v>0.61428571428571432</v>
-      </c>
-      <c r="T11" s="17">
-        <f t="shared" si="8"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="U11" s="13">
-        <f t="shared" si="9"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="V11" s="13">
-        <f t="shared" si="10"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="W11" s="18">
-        <f t="shared" si="11"/>
-        <v>0.48571428571428577</v>
-      </c>
-      <c r="X11" s="17">
-        <f t="shared" si="12"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Y11" s="13">
-        <f t="shared" si="13"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Z11" s="13">
-        <f t="shared" si="14"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="AA11" s="18">
-        <f t="shared" si="15"/>
-        <v>0.35714285714285721</v>
-      </c>
-      <c r="AB11" s="17">
-        <f t="shared" si="16"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AC11" s="13">
-        <f t="shared" si="17"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AD11" s="13">
-        <f t="shared" si="18"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AE11" s="18">
-        <f t="shared" si="19"/>
-        <v>0.22857142857142862</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AG11">
-        <v>0.1</v>
-      </c>
-      <c r="AH11">
-        <v>0.1</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.08</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="20"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="21"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="22"/>
-        <v>8.2857142857142865E-2</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="23"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-      <c r="L12" s="17">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="M12" s="13">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" si="2"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="O12" s="18">
-        <f t="shared" si="3"/>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="P12" s="17">
-        <f t="shared" si="4"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="Q12" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="R12" s="13">
-        <f t="shared" si="6"/>
-        <v>8.8571428571428593E-2</v>
-      </c>
-      <c r="S12" s="18">
-        <f t="shared" si="7"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="T12" s="17">
-        <f t="shared" si="8"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="U12" s="13">
-        <f t="shared" si="9"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="V12" s="13">
-        <f t="shared" si="10"/>
-        <v>9.1428571428571456E-2</v>
-      </c>
-      <c r="W12" s="18">
-        <f t="shared" si="11"/>
-        <v>5.7142857142857148E-2</v>
-      </c>
-      <c r="X12" s="17">
-        <f t="shared" si="12"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Y12" s="13">
-        <f t="shared" si="13"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="Z12" s="13">
-        <f t="shared" si="14"/>
-        <v>9.428571428571432E-2</v>
-      </c>
-      <c r="AA12" s="18">
-        <f t="shared" si="15"/>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="AB12" s="17">
-        <f t="shared" si="16"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AC12" s="13">
-        <f t="shared" si="17"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AD12" s="13">
-        <f t="shared" si="18"/>
-        <v>9.7142857142857184E-2</v>
-      </c>
-      <c r="AE12" s="18">
-        <f t="shared" si="19"/>
-        <v>8.5714285714285729E-2</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AG12">
-        <v>0.1</v>
-      </c>
-      <c r="AH12">
-        <v>0.1</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="22"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M13" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O13" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R13" s="13">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="S13" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T13" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U13" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V13" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W13" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X13" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y13" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z13" s="13">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AA13" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB13" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC13" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD13" s="13">
-        <f t="shared" si="18"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AE13" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG13">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH13">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="22"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L14" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O14" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P14" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R14" s="13">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="S14" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T14" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U14" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W14" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X14" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y14" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z14" s="13">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AA14" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB14" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC14" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD14" s="13">
-        <f t="shared" si="18"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AE14" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG14">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH14">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI14" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="22"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L15" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M15" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P15" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R15" s="13">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="S15" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T15" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U15" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W15" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X15" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y15" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z15" s="13">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AA15" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB15" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC15" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD15" s="13">
-        <f t="shared" si="18"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AE15" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG15">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH15">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI15" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="22"/>
-        <v>7.9571428571428571E-2</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M16" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N16" s="13">
-        <f t="shared" si="2"/>
-        <v>8.7142857142857133E-2</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q16" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R16" s="13">
-        <f t="shared" si="6"/>
-        <v>9.4714285714285695E-2</v>
-      </c>
-      <c r="S16" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T16" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U16" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V16" s="13">
-        <f t="shared" si="10"/>
-        <v>0.10228571428571426</v>
-      </c>
-      <c r="W16" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X16" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y16" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z16" s="13">
-        <f t="shared" si="14"/>
-        <v>0.10985714285714282</v>
-      </c>
-      <c r="AA16" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB16" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC16" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD16" s="13">
-        <f t="shared" si="18"/>
-        <v>0.11742857142857138</v>
-      </c>
-      <c r="AE16" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG16">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH16">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI16" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" si="22"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M17" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N17" s="13">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O17" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R17" s="13">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="S17" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T17" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U17" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V17" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W17" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X17" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y17" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z17" s="13">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AA17" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB17" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC17" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD17" s="13">
-        <f t="shared" si="18"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AE17" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG17">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH17">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI17" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="22"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L18" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O18" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P18" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R18" s="13">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="S18" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T18" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U18" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V18" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W18" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X18" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y18" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AA18" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB18" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC18" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD18" s="13">
-        <f t="shared" si="18"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AE18" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG18">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH18">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI18" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I19" s="13">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="22"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M19" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N19" s="13">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="O19" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P19" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R19" s="13">
-        <f t="shared" si="6"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="S19" s="18">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T19" s="17">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U19" s="13">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V19" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W19" s="18">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X19" s="17">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y19" s="13">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z19" s="13">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AA19" s="18">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB19" s="17">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC19" s="13">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD19" s="13">
-        <f t="shared" si="18"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AE19" s="18">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG19">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH19">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI19" s="8">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5.5999999999999932E-2</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="I20" s="20">
-        <f t="shared" si="21"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="J20" s="20">
-        <f t="shared" si="22"/>
-        <v>6.5857142857142795E-2</v>
-      </c>
-      <c r="K20" s="21">
-        <f t="shared" si="23"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="L20" s="19">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="M20" s="20">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="N20" s="20">
-        <f t="shared" si="2"/>
-        <v>7.5714285714285665E-2</v>
-      </c>
-      <c r="O20" s="21">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="P20" s="19">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="Q20" s="20">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="R20" s="20">
-        <f t="shared" si="6"/>
-        <v>8.5571428571428534E-2</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" si="7"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="T20" s="19">
-        <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="U20" s="20">
-        <f t="shared" si="9"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="V20" s="20">
-        <f t="shared" si="10"/>
-        <v>9.5428571428571404E-2</v>
-      </c>
-      <c r="W20" s="21">
-        <f t="shared" si="11"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="X20" s="19">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Y20" s="20">
-        <f t="shared" si="13"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="Z20" s="20">
-        <f t="shared" si="14"/>
-        <v>0.10528571428571427</v>
-      </c>
-      <c r="AA20" s="21">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="AB20" s="19">
-        <f t="shared" si="16"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AC20" s="20">
-        <f t="shared" si="17"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AD20" s="20">
-        <f t="shared" si="18"/>
-        <v>0.11514285714285714</v>
-      </c>
-      <c r="AE20" s="21">
-        <f t="shared" si="19"/>
-        <v>0.10714285714285712</v>
-      </c>
-      <c r="AF20" s="9">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AG20" s="10">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AH20" s="10">
-        <v>0.12499999999999999</v>
-      </c>
-      <c r="AI20" s="11">
-        <v>0.12499999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Act/Act coeff.xlsx
+++ b/Act/Act coeff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Act/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="8_{09098739-24F5-4595-8E13-EBA926F9E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA1712E-06E1-458D-824C-FAF4927C4791}"/>
+  <xr:revisionPtr revIDLastSave="663" documentId="8_{09098739-24F5-4595-8E13-EBA926F9E718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4DB0ABF-5ABA-47E4-8E90-321F9EA0C3B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" firstSheet="3" activeTab="6" xr2:uid="{F0FFBB4D-3462-4CB2-9D76-7DC3B03F0357}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="15020" firstSheet="4" activeTab="5" xr2:uid="{F0FFBB4D-3462-4CB2-9D76-7DC3B03F0357}"/>
   </bookViews>
   <sheets>
     <sheet name="z_cons(2023)" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="z_rec(2023)" sheetId="5" r:id="rId4"/>
     <sheet name="Share recycling" sheetId="6" r:id="rId5"/>
     <sheet name="Target recycling" sheetId="7" r:id="rId6"/>
-    <sheet name="Allocation matrix" sheetId="8" r:id="rId7"/>
+    <sheet name="Allocation matrix act" sheetId="8" r:id="rId7"/>
+    <sheet name="Allocation matrix base" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="30">
   <si>
     <t>China</t>
   </si>
@@ -9219,7 +9220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66BF563-C855-4D60-9032-AEE603A77B68}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AI20"/>
     </sheetView>
   </sheetViews>
@@ -14392,8 +14393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A71C650-29E5-471A-BF58-C4804C6594F9}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14860,7 +14861,7 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>7.22568E-3</v>
@@ -15276,7 +15277,7 @@
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -15692,7 +15693,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -16108,7 +16109,7 @@
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -16353,8 +16354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED252F2A-3F4A-423D-8A86-74BC4A1FD378}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18693,4 +18694,1036 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44250E27-31BF-410D-BD33-83DA28D0093D}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B1" s="22"/>
+      <c r="D1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.79196416071678566</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.79196416071678566</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.79196416071678566</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8.0008399832003335E-2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8.0008399832003335E-2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>8.0008399832003335E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.2028559428811423E-2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>7.2028559428811423E-2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>7.2028559428811423E-2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>5.5998880022399548E-2</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>5.5998880022399548E-2</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>5.5998880022399548E-2</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>